--- a/第4章excel/公式和函数/if练习.xlsx
+++ b/第4章excel/公式和函数/if练习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="练习1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>销售业绩提成表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -445,6 +445,10 @@
   </si>
   <si>
     <t>350万元以下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金=销售额*提成比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,23 +537,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,14 +868,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1141,749 +1145,749 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="6" t="str">
         <f>REPLACE(A3,1,1,"B")</f>
         <v>B4001</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="5" t="str">
         <f>MID(C3,1,1)</f>
         <v>罗</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>55</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>38</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>E3+F3</f>
         <v>93</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="6" t="str">
         <f t="shared" ref="B4:B21" si="0">REPLACE(A4,1,1,"B")</f>
         <v>B4002</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" ref="D4:D21" si="1">MID(C4,1,1)</f>
         <v>张</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>56</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>37</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <f t="shared" ref="G4:G21" si="2">E4+F4</f>
         <v>93</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4003</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>胡</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>45</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>39</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4004</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>张</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>49</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>35</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4005</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>李</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>61</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>35</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4006</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>何</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>88</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>74</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4007</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>徐</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>72</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>62</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4008</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>文</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>82</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>74</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>2</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4009</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>周</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>64</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>61</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4010</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>罗</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>79</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>81</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4011</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>宋</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>88</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>73</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4012</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>赵</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>60</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>20</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4013</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>齐</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>80</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>70</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4014</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>黎</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>87</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>74</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>3</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4015</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="6" t="str">
+      <c r="D17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>苏</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>82</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>80</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4016</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="6" t="str">
+      <c r="D18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>李</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>68</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>60</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4017</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="6" t="str">
+      <c r="D19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>钱</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>89</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>77</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4018</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="6" t="str">
+      <c r="D20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>孙</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>65</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>66</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>B4019</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="6" t="str">
+      <c r="D21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>王</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>100</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>87</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1897,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L17:L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1986,6 +1990,11 @@
         <v>755</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
